--- a/data/trans_orig/P16A07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{912C28D5-08C1-4364-BDF6-B4E0BBBC99AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A946EF45-51A9-42EE-829F-50668C268B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0A381A2-7714-4AC9-AA26-0710998FD32F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2C95A150-C910-4B66-A85A-9044AB2649C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>3,98%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>96,02%</t>
   </si>
   <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
   <si>
     <t>92,73%</t>
   </si>
   <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,754 +140,772 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>3,53%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
   </si>
   <si>
     <t>94,34%</t>
   </si>
   <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B99B72B-5125-44AF-9D72-4FE4E138FE13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415683CB-7A85-4D33-BEB4-D2E833F3E22F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1736,10 +1754,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -1748,13 +1766,13 @@
         <v>17080</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -1763,13 +1781,13 @@
         <v>28396</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,13 +1802,13 @@
         <v>540091</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>436</v>
@@ -1799,13 +1817,13 @@
         <v>459332</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>951</v>
@@ -1814,13 +1832,13 @@
         <v>999424</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,13 +1906,13 @@
         <v>70100</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>211</v>
@@ -1903,13 +1921,13 @@
         <v>218181</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>282</v>
@@ -1918,13 +1936,13 @@
         <v>288281</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,16 +1954,16 @@
         <v>3142</v>
       </c>
       <c r="D14" s="7">
-        <v>3205425</v>
+        <v>3205426</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>3086</v>
@@ -1954,28 +1972,28 @@
         <v>3161017</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>6228</v>
       </c>
       <c r="N14" s="7">
-        <v>6366441</v>
+        <v>6366442</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,7 +2005,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2017,7 +2035,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2031,7 +2049,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2050,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA03B610-49C9-40EB-B76D-C315EF48DBDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F467C45-61A3-4AB2-AEB4-53643A25D088}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2067,7 +2085,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2174,13 +2192,13 @@
         <v>49847</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>180</v>
@@ -2189,13 +2207,13 @@
         <v>190466</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>225</v>
@@ -2204,13 +2222,13 @@
         <v>240314</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2243,13 @@
         <v>921990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>1062</v>
@@ -2240,13 +2258,13 @@
         <v>1141981</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>1923</v>
@@ -2255,13 +2273,13 @@
         <v>2063970</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,13 +2347,13 @@
         <v>47904</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
@@ -2344,13 +2362,13 @@
         <v>96450</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>135</v>
@@ -2359,13 +2377,13 @@
         <v>144355</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2398,13 @@
         <v>1911077</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>1538</v>
@@ -2395,13 +2413,13 @@
         <v>1656184</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>3346</v>
@@ -2410,13 +2428,13 @@
         <v>3567261</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2502,13 @@
         <v>9050</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -2499,13 +2517,13 @@
         <v>9689</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2514,13 +2532,13 @@
         <v>18739</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2553,13 @@
         <v>471282</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H11" s="7">
         <v>402</v>
@@ -2550,13 +2568,13 @@
         <v>447965</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="M11" s="7">
         <v>833</v>
@@ -2565,13 +2583,13 @@
         <v>919247</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2657,13 @@
         <v>106802</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>281</v>
@@ -2654,13 +2672,13 @@
         <v>296605</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>375</v>
@@ -2669,13 +2687,13 @@
         <v>403407</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2708,13 @@
         <v>3304348</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>3002</v>
@@ -2705,13 +2723,13 @@
         <v>3246131</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M14" s="7">
         <v>6102</v>
@@ -2720,10 +2738,10 @@
         <v>6550479</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>152</v>
@@ -2782,7 +2800,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2801,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D51678-D2B3-4737-BDA5-095E5A620BBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7C9897-61FF-44D5-AEBD-20B8F43C1609}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3271,7 +3289,7 @@
         <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3304,13 @@
         <v>543903</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>513</v>
@@ -3301,13 +3319,13 @@
         <v>534599</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>1011</v>
@@ -3316,13 +3334,13 @@
         <v>1078502</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3408,13 @@
         <v>74207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>225</v>
@@ -3405,13 +3423,13 @@
         <v>249286</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>298</v>
@@ -3420,13 +3438,13 @@
         <v>323493</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3459,13 @@
         <v>3303411</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>3101</v>
@@ -3456,13 +3474,13 @@
         <v>3282814</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>6243</v>
@@ -3533,7 +3551,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3552,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC343C5-F1BC-492C-904E-DE4994073265}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A2B7E-56B7-4660-B036-4F73DC09F198}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3679,7 +3697,7 @@
         <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>222</v>
@@ -3733,7 +3751,7 @@
         <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="H5" s="7">
         <v>1237</v>
@@ -3837,7 +3855,7 @@
         <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>225</v>
@@ -3846,13 +3864,13 @@
         <v>151725</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M7" s="7">
         <v>296</v>
@@ -3861,13 +3879,13 @@
         <v>218607</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,28 +3900,28 @@
         <v>2095140</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>2695</v>
       </c>
       <c r="I8" s="7">
-        <v>2097071</v>
+        <v>2097070</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>4616</v>
@@ -3912,13 +3930,13 @@
         <v>4192210</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,7 +3963,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3986,13 +4004,13 @@
         <v>14864</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4001,13 +4019,13 @@
         <v>27713</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -4016,13 +4034,13 @@
         <v>42577</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4055,13 @@
         <v>658175</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
         <v>965</v>
@@ -4052,13 +4070,13 @@
         <v>686173</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
         <v>1631</v>
@@ -4067,13 +4085,13 @@
         <v>1344349</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4159,13 @@
         <v>117669</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>450</v>
@@ -4156,13 +4174,13 @@
         <v>287807</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>579</v>
@@ -4171,13 +4189,13 @@
         <v>405476</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4210,13 @@
         <v>3257435</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>4897</v>
@@ -4207,13 +4225,13 @@
         <v>3506443</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>8130</v>
@@ -4222,13 +4240,13 @@
         <v>6763878</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,7 +4302,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A946EF45-51A9-42EE-829F-50668C268B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{518E2BAE-AE83-4F96-AEE9-ED3B37BC558F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2C95A150-C910-4B66-A85A-9044AB2649C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{104FA057-6EAF-4A8B-B761-DB787D5F9522}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,628 +77,628 @@
     <t>3,98%</t>
   </si>
   <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>91,96%</t>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
   </si>
   <si>
     <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
@@ -1317,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415683CB-7A85-4D33-BEB4-D2E833F3E22F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7002E62-7A57-45E4-8806-8B6AC1C45F5F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1477,13 +1477,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>997</v>
@@ -1492,13 +1492,13 @@
         <v>990654</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1165</v>
@@ -1507,13 +1507,13 @@
         <v>1185516</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>2162</v>
@@ -1522,13 +1522,13 @@
         <v>2176169</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1543,13 +1543,13 @@
         <v>1031723</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1291</v>
@@ -1558,13 +1558,13 @@
         <v>1315113</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2329</v>
@@ -1573,18 +1573,18 @@
         <v>2346836</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1596,13 +1596,13 @@
         <v>17714</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -1611,13 +1611,13 @@
         <v>71504</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>87</v>
@@ -1626,19 +1626,19 @@
         <v>89218</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1630</v>
@@ -1647,13 +1647,13 @@
         <v>1674680</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1485</v>
@@ -1662,13 +1662,13 @@
         <v>1516169</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3115</v>
@@ -1677,13 +1677,13 @@
         <v>3190850</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1698,13 +1698,13 @@
         <v>1692394</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1554</v>
@@ -1713,13 +1713,13 @@
         <v>1587673</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3202</v>
@@ -1728,18 +1728,18 @@
         <v>3280068</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1751,13 +1751,13 @@
         <v>11317</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -1766,13 +1766,13 @@
         <v>17080</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -1781,19 +1781,19 @@
         <v>28396</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>515</v>
@@ -1802,13 +1802,13 @@
         <v>540091</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>436</v>
@@ -1823,7 +1823,7 @@
         <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
         <v>951</v>
@@ -1853,13 +1853,13 @@
         <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>452</v>
@@ -1868,13 +1868,13 @@
         <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>979</v>
@@ -1883,13 +1883,13 @@
         <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,13 +1948,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3142</v>
       </c>
       <c r="D14" s="7">
-        <v>3205426</v>
+        <v>3205425</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>74</v>
@@ -2005,16 +2005,16 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3297</v>
@@ -2023,13 +2023,13 @@
         <v>3379198</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6510</v>
@@ -2038,13 +2038,13 @@
         <v>6654723</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F467C45-61A3-4AB2-AEB4-53643A25D088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C429F66-0BA6-47BB-B0A2-F426D08F0C1A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2234,7 +2234,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>861</v>
@@ -2294,13 +2294,13 @@
         <v>971837</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1242</v>
@@ -2309,13 +2309,13 @@
         <v>1332447</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2148</v>
@@ -2324,18 +2324,18 @@
         <v>2304284</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2377,19 +2377,19 @@
         <v>144355</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1808</v>
@@ -2398,13 +2398,13 @@
         <v>1911077</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>1538</v>
@@ -2413,13 +2413,13 @@
         <v>1656184</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>3346</v>
@@ -2428,13 +2428,13 @@
         <v>3567261</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2449,13 @@
         <v>1958981</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1630</v>
@@ -2464,13 +2464,13 @@
         <v>1752634</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3481</v>
@@ -2479,18 +2479,18 @@
         <v>3711616</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2502,13 +2502,13 @@
         <v>9050</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -2517,13 +2517,13 @@
         <v>9689</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2532,19 +2532,19 @@
         <v>18739</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>431</v>
@@ -2556,10 +2556,10 @@
         <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>402</v>
@@ -2568,13 +2568,13 @@
         <v>447965</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>833</v>
@@ -2583,13 +2583,13 @@
         <v>919247</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2604,13 @@
         <v>480332</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>411</v>
@@ -2619,13 +2619,13 @@
         <v>457654</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>848</v>
@@ -2634,13 +2634,13 @@
         <v>937986</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2657,13 @@
         <v>106802</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>281</v>
@@ -2672,13 +2672,13 @@
         <v>296605</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>375</v>
@@ -2687,19 +2687,19 @@
         <v>403407</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3100</v>
@@ -2708,13 +2708,13 @@
         <v>3304348</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>3002</v>
@@ -2723,13 +2723,13 @@
         <v>3246131</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>6102</v>
@@ -2738,13 +2738,13 @@
         <v>6550479</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2759,13 @@
         <v>3411150</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3283</v>
@@ -2774,13 +2774,13 @@
         <v>3542736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6477</v>
@@ -2789,13 +2789,13 @@
         <v>6953886</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7C9897-61FF-44D5-AEBD-20B8F43C1609}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BE1269-9AC0-4073-B0FC-EE609EF4E01A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2836,7 +2836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2943,13 +2943,13 @@
         <v>31843</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>101</v>
@@ -2958,13 +2958,13 @@
         <v>112358</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>133</v>
@@ -2973,19 +2973,19 @@
         <v>144201</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>730</v>
@@ -2994,13 +2994,13 @@
         <v>722504</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>791</v>
@@ -3009,13 +3009,13 @@
         <v>882302</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>1521</v>
@@ -3024,13 +3024,13 @@
         <v>1604806</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,13 +3045,13 @@
         <v>754347</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>892</v>
@@ -3060,13 +3060,13 @@
         <v>994660</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>1654</v>
@@ -3075,18 +3075,18 @@
         <v>1749007</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3098,13 +3098,13 @@
         <v>39381</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -3113,13 +3113,13 @@
         <v>122387</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>149</v>
@@ -3131,16 +3131,16 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1914</v>
@@ -3149,13 +3149,13 @@
         <v>2037004</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>1797</v>
@@ -3164,13 +3164,13 @@
         <v>1865913</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>3711</v>
@@ -3179,13 +3179,13 @@
         <v>3902916</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,13 +3200,13 @@
         <v>2076385</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1908</v>
@@ -3215,13 +3215,13 @@
         <v>1988300</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3860</v>
@@ -3230,18 +3230,18 @@
         <v>4064685</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3253,13 +3253,13 @@
         <v>2983</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3268,13 +3268,13 @@
         <v>14541</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3283,19 +3283,19 @@
         <v>17524</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>498</v>
@@ -3304,13 +3304,13 @@
         <v>543903</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>513</v>
@@ -3319,13 +3319,13 @@
         <v>534599</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>1011</v>
@@ -3334,13 +3334,13 @@
         <v>1078502</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3355,13 @@
         <v>546886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>526</v>
@@ -3370,13 +3370,13 @@
         <v>549140</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1027</v>
@@ -3385,13 +3385,13 @@
         <v>1096026</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3408,13 @@
         <v>74207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>225</v>
@@ -3423,13 +3423,13 @@
         <v>249286</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>298</v>
@@ -3438,19 +3438,19 @@
         <v>323493</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3142</v>
@@ -3459,13 +3459,13 @@
         <v>3303411</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>3101</v>
@@ -3474,13 +3474,13 @@
         <v>3282814</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>6243</v>
@@ -3510,13 +3510,13 @@
         <v>3377618</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3326</v>
@@ -3525,13 +3525,13 @@
         <v>3532100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6541</v>
@@ -3540,13 +3540,13 @@
         <v>6909718</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A2B7E-56B7-4660-B036-4F73DC09F198}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E08FF1-4F49-4CB0-8428-7DBC94CC62C5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3697,7 +3697,7 @@
         <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>222</v>
@@ -3736,7 +3736,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>646</v>
@@ -3796,13 +3796,13 @@
         <v>540042</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1423</v>
@@ -3811,13 +3811,13 @@
         <v>831568</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2112</v>
@@ -3826,18 +3826,18 @@
         <v>1371611</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3891,7 +3891,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1921</v>
@@ -3951,13 +3951,13 @@
         <v>2162022</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>2920</v>
@@ -3966,13 +3966,13 @@
         <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>4912</v>
@@ -3981,18 +3981,18 @@
         <v>4410817</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4046,7 +4046,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>666</v>
@@ -4106,13 +4106,13 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>1004</v>
@@ -4121,13 +4121,13 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1685</v>
@@ -4136,13 +4136,13 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,7 +4201,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3233</v>
@@ -4261,13 +4261,13 @@
         <v>3375104</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>5347</v>
@@ -4276,13 +4276,13 @@
         <v>3794250</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>8709</v>
@@ -4291,13 +4291,13 @@
         <v>7169354</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{518E2BAE-AE83-4F96-AEE9-ED3B37BC558F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE249AA-0296-4AD0-93AA-D435F301AEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{104FA057-6EAF-4A8B-B761-DB787D5F9522}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EEB48A26-969B-4201-8711-6BF5663E6C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
   <si>
     <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,31 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>6,25%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,25 +107,28 @@
     <t>96,02%</t>
   </si>
   <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
   </si>
   <si>
     <t>92,73%</t>
   </si>
   <si>
-    <t>93,75%</t>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,778 +140,754 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
   </si>
   <si>
     <t>94,77%</t>
   </si>
   <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
   <si>
     <t>95,81%</t>
   </si>
   <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
+    <t>97,1%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7002E62-7A57-45E4-8806-8B6AC1C45F5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57B5B45-75FB-49ED-93E0-F259868A831D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1477,13 +1459,13 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>997</v>
@@ -1492,13 +1474,13 @@
         <v>990654</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1165</v>
@@ -1507,13 +1489,13 @@
         <v>1185516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>2162</v>
@@ -1522,13 +1504,13 @@
         <v>2176169</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1543,13 +1525,13 @@
         <v>1031723</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>1291</v>
@@ -1558,13 +1540,13 @@
         <v>1315113</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>2329</v>
@@ -1573,18 +1555,18 @@
         <v>2346836</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1596,13 +1578,13 @@
         <v>17714</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -1611,13 +1593,13 @@
         <v>71504</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>87</v>
@@ -1626,19 +1608,19 @@
         <v>89218</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1630</v>
@@ -1647,13 +1629,13 @@
         <v>1674680</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1485</v>
@@ -1662,13 +1644,13 @@
         <v>1516169</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3115</v>
@@ -1677,13 +1659,13 @@
         <v>3190850</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1698,13 +1680,13 @@
         <v>1692394</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>1554</v>
@@ -1713,13 +1695,13 @@
         <v>1587673</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>3202</v>
@@ -1728,18 +1710,18 @@
         <v>3280068</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1751,13 +1733,13 @@
         <v>11317</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -1766,13 +1748,13 @@
         <v>17080</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -1781,19 +1763,19 @@
         <v>28396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>515</v>
@@ -1802,13 +1784,13 @@
         <v>540091</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>436</v>
@@ -1817,13 +1799,13 @@
         <v>459332</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>951</v>
@@ -1832,13 +1814,13 @@
         <v>999424</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,13 +1835,13 @@
         <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>452</v>
@@ -1868,13 +1850,13 @@
         <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>979</v>
@@ -1883,13 +1865,13 @@
         <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1888,13 @@
         <v>70100</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>211</v>
@@ -1921,13 +1903,13 @@
         <v>218181</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>282</v>
@@ -1936,19 +1918,19 @@
         <v>288281</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3142</v>
@@ -1957,13 +1939,13 @@
         <v>3205425</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3086</v>
@@ -1972,28 +1954,28 @@
         <v>3161017</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6228</v>
       </c>
       <c r="N14" s="7">
-        <v>6366442</v>
+        <v>6366441</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,13 +1990,13 @@
         <v>3275525</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>3297</v>
@@ -2023,33 +2005,33 @@
         <v>3379198</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C429F66-0BA6-47BB-B0A2-F426D08F0C1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CA0C3E-19BB-451C-96CE-FBEE5081E2CD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2085,7 +2067,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2192,13 +2174,13 @@
         <v>49847</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>180</v>
@@ -2207,13 +2189,13 @@
         <v>190466</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>225</v>
@@ -2222,19 +2204,19 @@
         <v>240314</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>861</v>
@@ -2243,13 +2225,13 @@
         <v>921990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1062</v>
@@ -2258,13 +2240,13 @@
         <v>1141981</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1923</v>
@@ -2273,13 +2255,13 @@
         <v>2063970</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2276,13 @@
         <v>971837</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>1242</v>
@@ -2309,13 +2291,13 @@
         <v>1332447</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>2148</v>
@@ -2324,18 +2306,18 @@
         <v>2304284</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2347,13 +2329,13 @@
         <v>47904</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
@@ -2362,13 +2344,13 @@
         <v>96450</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>135</v>
@@ -2377,19 +2359,19 @@
         <v>144355</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1808</v>
@@ -2398,13 +2380,13 @@
         <v>1911077</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1538</v>
@@ -2413,13 +2395,13 @@
         <v>1656184</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3346</v>
@@ -2428,13 +2410,13 @@
         <v>3567261</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2431,13 @@
         <v>1958981</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>1630</v>
@@ -2464,13 +2446,13 @@
         <v>1752634</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>3481</v>
@@ -2479,18 +2461,18 @@
         <v>3711616</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2502,13 +2484,13 @@
         <v>9050</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -2517,13 +2499,13 @@
         <v>9689</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2532,19 +2514,19 @@
         <v>18739</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>431</v>
@@ -2553,13 +2535,13 @@
         <v>471282</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>402</v>
@@ -2568,13 +2550,13 @@
         <v>447965</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>833</v>
@@ -2583,13 +2565,13 @@
         <v>919247</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2586,13 @@
         <v>480332</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>411</v>
@@ -2619,13 +2601,13 @@
         <v>457654</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>848</v>
@@ -2634,13 +2616,13 @@
         <v>937986</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2639,13 @@
         <v>106802</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
         <v>281</v>
@@ -2672,13 +2654,13 @@
         <v>296605</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>375</v>
@@ -2687,19 +2669,19 @@
         <v>403407</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3100</v>
@@ -2708,13 +2690,13 @@
         <v>3304348</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>3002</v>
@@ -2723,13 +2705,13 @@
         <v>3246131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
         <v>6102</v>
@@ -2738,13 +2720,13 @@
         <v>6550479</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2741,13 @@
         <v>3411150</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>3283</v>
@@ -2774,13 +2756,13 @@
         <v>3542736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>6477</v>
@@ -2789,18 +2771,18 @@
         <v>6953886</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2819,7 +2801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BE1269-9AC0-4073-B0FC-EE609EF4E01A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C765612-A9B3-4BF7-BCEA-825271AF788C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2836,7 +2818,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2943,13 +2925,13 @@
         <v>31843</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>101</v>
@@ -2958,13 +2940,13 @@
         <v>112358</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>133</v>
@@ -2973,19 +2955,19 @@
         <v>144201</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>730</v>
@@ -2994,13 +2976,13 @@
         <v>722504</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>791</v>
@@ -3009,13 +2991,13 @@
         <v>882302</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>1521</v>
@@ -3024,13 +3006,13 @@
         <v>1604806</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,13 +3027,13 @@
         <v>754347</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>892</v>
@@ -3060,13 +3042,13 @@
         <v>994660</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>1654</v>
@@ -3075,18 +3057,18 @@
         <v>1749007</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3098,13 +3080,13 @@
         <v>39381</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -3113,13 +3095,13 @@
         <v>122387</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>149</v>
@@ -3131,16 +3113,16 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1914</v>
@@ -3149,13 +3131,13 @@
         <v>2037004</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>1797</v>
@@ -3164,13 +3146,13 @@
         <v>1865913</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>3711</v>
@@ -3179,13 +3161,13 @@
         <v>3902916</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,13 +3182,13 @@
         <v>2076385</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>1908</v>
@@ -3215,13 +3197,13 @@
         <v>1988300</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>3860</v>
@@ -3230,18 +3212,18 @@
         <v>4064685</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3253,13 +3235,13 @@
         <v>2983</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3268,13 +3250,13 @@
         <v>14541</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3283,19 +3265,19 @@
         <v>17524</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>498</v>
@@ -3304,13 +3286,13 @@
         <v>543903</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>513</v>
@@ -3319,13 +3301,13 @@
         <v>534599</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>1011</v>
@@ -3334,10 +3316,10 @@
         <v>1078502</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>203</v>
@@ -3355,13 +3337,13 @@
         <v>546886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>526</v>
@@ -3370,13 +3352,13 @@
         <v>549140</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1027</v>
@@ -3385,13 +3367,13 @@
         <v>1096026</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3390,13 @@
         <v>74207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>225</v>
@@ -3450,7 +3432,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3142</v>
@@ -3459,10 +3441,10 @@
         <v>3303411</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>213</v>
@@ -3510,13 +3492,13 @@
         <v>3377618</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>3326</v>
@@ -3525,13 +3507,13 @@
         <v>3532100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>6541</v>
@@ -3540,18 +3522,18 @@
         <v>6909718</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E08FF1-4F49-4CB0-8428-7DBC94CC62C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8ACC4-CAB1-4B51-897B-52935F97ECD6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3697,7 +3679,7 @@
         <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>222</v>
@@ -3736,7 +3718,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>646</v>
@@ -3751,7 +3733,7 @@
         <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>1237</v>
@@ -3796,13 +3778,13 @@
         <v>540042</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>1423</v>
@@ -3811,13 +3793,13 @@
         <v>831568</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>2112</v>
@@ -3826,18 +3808,18 @@
         <v>1371611</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3855,7 +3837,7 @@
         <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="H7" s="7">
         <v>225</v>
@@ -3864,13 +3846,13 @@
         <v>151725</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M7" s="7">
         <v>296</v>
@@ -3879,19 +3861,19 @@
         <v>218607</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1921</v>
@@ -3900,28 +3882,28 @@
         <v>2095140</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>2695</v>
       </c>
       <c r="I8" s="7">
-        <v>2097070</v>
+        <v>2097071</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>4616</v>
@@ -3930,13 +3912,13 @@
         <v>4192210</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,28 +3933,28 @@
         <v>2162022</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>2248796</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>4912</v>
@@ -3981,18 +3963,18 @@
         <v>4410817</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4004,13 +3986,13 @@
         <v>14864</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>255</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4019,13 +4001,13 @@
         <v>27713</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -4034,19 +4016,19 @@
         <v>42577</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>666</v>
@@ -4055,13 +4037,13 @@
         <v>658175</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H11" s="7">
         <v>965</v>
@@ -4070,13 +4052,13 @@
         <v>686173</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M11" s="7">
         <v>1631</v>
@@ -4085,13 +4067,13 @@
         <v>1344349</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4088,13 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>1004</v>
@@ -4121,13 +4103,13 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1685</v>
@@ -4136,13 +4118,13 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4141,13 @@
         <v>117669</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>450</v>
@@ -4174,13 +4156,13 @@
         <v>287807</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>579</v>
@@ -4189,19 +4171,19 @@
         <v>405476</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>3233</v>
@@ -4210,13 +4192,13 @@
         <v>3257435</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>4897</v>
@@ -4225,13 +4207,13 @@
         <v>3506443</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>8130</v>
@@ -4240,13 +4222,13 @@
         <v>6763878</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4243,13 @@
         <v>3375104</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>5347</v>
@@ -4276,13 +4258,13 @@
         <v>3794250</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>8709</v>
@@ -4291,18 +4273,18 @@
         <v>7169354</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE249AA-0296-4AD0-93AA-D435F301AEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E468C92-3ED3-4C92-B4B1-5FEF3F943E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EEB48A26-969B-4201-8711-6BF5663E6C8A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{16E71EE2-E056-4956-8DD7-9DEB96AB88EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -704,190 +704,208 @@
     <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
   </si>
   <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57B5B45-75FB-49ED-93E0-F259868A831D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F2D8D5-D87E-42BF-952D-532A84A955C5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1501,7 +1519,7 @@
         <v>2162</v>
       </c>
       <c r="N5" s="7">
-        <v>2176169</v>
+        <v>2176168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1552,7 +1570,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1656,7 +1674,7 @@
         <v>3115</v>
       </c>
       <c r="N8" s="7">
-        <v>3190850</v>
+        <v>3190849</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1707,7 +1725,7 @@
         <v>3202</v>
       </c>
       <c r="N9" s="7">
-        <v>3280068</v>
+        <v>3280067</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1951,7 +1969,7 @@
         <v>3086</v>
       </c>
       <c r="I14" s="7">
-        <v>3161017</v>
+        <v>3161016</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2002,7 +2020,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2050,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CA0C3E-19BB-451C-96CE-FBEE5081E2CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9167606A-B25D-45DD-8DB8-5F8AEA67440C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2392,7 +2410,7 @@
         <v>1538</v>
       </c>
       <c r="I8" s="7">
-        <v>1656184</v>
+        <v>1656185</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2407,7 +2425,7 @@
         <v>3346</v>
       </c>
       <c r="N8" s="7">
-        <v>3567261</v>
+        <v>3567260</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2443,7 +2461,7 @@
         <v>1630</v>
       </c>
       <c r="I9" s="7">
-        <v>1752634</v>
+        <v>1752635</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2458,7 +2476,7 @@
         <v>3481</v>
       </c>
       <c r="N9" s="7">
-        <v>3711616</v>
+        <v>3711615</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2801,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C765612-A9B3-4BF7-BCEA-825271AF788C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6991248B-CA57-4A0A-8CB7-9F4670A240F3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3313,7 +3331,7 @@
         <v>1011</v>
       </c>
       <c r="N11" s="7">
-        <v>1078502</v>
+        <v>1078503</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>202</v>
@@ -3364,7 +3382,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3552,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8ACC4-CAB1-4B51-897B-52935F97ECD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3446D1CD-4250-47C7-9370-321C76E2A933}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3673,46 +3691,46 @@
         <v>43</v>
       </c>
       <c r="D4" s="7">
-        <v>35923</v>
+        <v>34333</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>186</v>
       </c>
       <c r="I4" s="7">
-        <v>108370</v>
+        <v>98103</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>229</v>
       </c>
       <c r="N4" s="7">
-        <v>144293</v>
+        <v>132436</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,46 +3742,46 @@
         <v>646</v>
       </c>
       <c r="D5" s="7">
-        <v>504119</v>
+        <v>479119</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>1237</v>
       </c>
       <c r="I5" s="7">
-        <v>723198</v>
+        <v>653629</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>1883</v>
       </c>
       <c r="N5" s="7">
-        <v>1227318</v>
+        <v>1132747</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,7 +3793,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>540042</v>
+        <v>513452</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3790,7 +3808,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>831568</v>
+        <v>751732</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3805,7 +3823,7 @@
         <v>2112</v>
       </c>
       <c r="N6" s="7">
-        <v>1371611</v>
+        <v>1265183</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3828,46 +3846,46 @@
         <v>71</v>
       </c>
       <c r="D7" s="7">
-        <v>66882</v>
+        <v>63192</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>225</v>
       </c>
       <c r="I7" s="7">
-        <v>151725</v>
+        <v>138356</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>296</v>
       </c>
       <c r="N7" s="7">
-        <v>218607</v>
+        <v>201548</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,46 +3897,46 @@
         <v>1921</v>
       </c>
       <c r="D8" s="7">
-        <v>2095140</v>
+        <v>2227135</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>2695</v>
       </c>
       <c r="I8" s="7">
-        <v>2097071</v>
+        <v>2098789</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>4616</v>
       </c>
       <c r="N8" s="7">
-        <v>4192210</v>
+        <v>4325924</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,7 +3948,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3945,7 +3963,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3960,7 +3978,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3983,46 +4001,46 @@
         <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>14864</v>
+        <v>14232</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>27713</v>
+        <v>25148</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
       </c>
       <c r="N10" s="7">
-        <v>42577</v>
+        <v>39379</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,46 +4052,46 @@
         <v>666</v>
       </c>
       <c r="D11" s="7">
-        <v>658175</v>
+        <v>632391</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>965</v>
       </c>
       <c r="I11" s="7">
-        <v>686173</v>
+        <v>635315</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>1631</v>
       </c>
       <c r="N11" s="7">
-        <v>1344349</v>
+        <v>1267707</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,7 +4103,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4100,7 +4118,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4115,7 +4133,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4138,46 +4156,46 @@
         <v>129</v>
       </c>
       <c r="D13" s="7">
-        <v>117669</v>
+        <v>111757</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>450</v>
       </c>
       <c r="I13" s="7">
-        <v>287807</v>
+        <v>261606</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>579</v>
       </c>
       <c r="N13" s="7">
-        <v>405476</v>
+        <v>373363</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,46 +4207,46 @@
         <v>3233</v>
       </c>
       <c r="D14" s="7">
-        <v>3257435</v>
+        <v>3338645</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>4897</v>
       </c>
       <c r="I14" s="7">
-        <v>3506443</v>
+        <v>3387733</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>8130</v>
       </c>
       <c r="N14" s="7">
-        <v>6763878</v>
+        <v>6726379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,7 +4258,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3375104</v>
+        <v>3450402</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4255,7 +4273,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3794250</v>
+        <v>3649339</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4270,7 +4288,7 @@
         <v>8709</v>
       </c>
       <c r="N15" s="7">
-        <v>7169354</v>
+        <v>7099742</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
